--- a/medicine/Enfance/Mieczysław_Maliński/Mieczysław_Maliński.xlsx
+++ b/medicine/Enfance/Mieczysław_Maliński/Mieczysław_Maliński.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mieczys%C5%82aw_Mali%C5%84ski</t>
+          <t>Mieczysław_Maliński</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mieczysław Maliński, né le 31 octobre 1923 à Brzostek (Basses-Carpates) et mort le 15 janvier 2017 (à 93 ans) à Cracovie, est un prêtre catholique, théologien et écrivain polonais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mieczys%C5%82aw_Mali%C5%84ski</t>
+          <t>Mieczysław_Maliński</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ayant perdu ses parents durant son enfance, il vient à Cracovie où il fait la connaissance de Jan Tyranowski et Karol Wojtyła. Après la guerre il entre au séminaire de Cracovie et fait des études de théologie à l'université Jagellonne. Il poursuit ensuite des études de philosophie à l'université catholique de Lublin. Dans les années 1960, il est autorisé à préparer un doctorat à l'université pontificale Saint-Thomas-d'Aquin où il reste de 1963 à 1967 pour étudier la théologie de Karl Rahner.
 Il exerce diverses fonctions pastorales, d'abord à Rabka puis à Cracovie, tout en donnant des cours d'ecclésiologie au grand séminaire de Cracovie. À partir de 1976, il est recteur de l'église saint-François-de-Sales de Cracovie (église des visitandines).
 Il collabore durant de longues années à l'hebdomadaire catholique libéral Tygodnik Powszechny.
-Il est inhumé le 24 janvier 2017 au cimetière cracovien de Salwator (en)[1].
+Il est inhumé le 24 janvier 2017 au cimetière cracovien de Salwator (en).
 </t>
         </is>
       </c>
